--- a/biology/Biologie cellulaire et moléculaire/Roland_Douce/Roland_Douce.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Roland_Douce/Roland_Douce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roland Douce (né le 18 mai 1939 à Saint-Maur-des-Fossés et décédé le 4 novembre 2018 à La Tronche) a créé avec ses élèves, à Grenoble, un centre de biologie végétale de réputation mondiale, focalisé sur la biologie des chloroplastes et des mitochondries et leurs rôles dans le métabolisme des plantes en conditions physiologiques normales ou de stress.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Études secondaires au lycée Marcelin-Berthelot et au collège d’Arsonval à Saint-Maur, baccalauréat sciences expérimentales, 1958. Études supérieures à l’Université de Paris, licence de sciences naturelles, 1961, thèse de doctorat d’état, Université de Paris, 1970 « Structure, localisation et métabolisme du diphosphatidylglycérol, ou cardiolipine, dans les plantes »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Études secondaires au lycée Marcelin-Berthelot et au collège d’Arsonval à Saint-Maur, baccalauréat sciences expérimentales, 1958. Études supérieures à l’Université de Paris, licence de sciences naturelles, 1961, thèse de doctorat d’état, Université de Paris, 1970 « Structure, localisation et métabolisme du diphosphatidylglycérol, ou cardiolipine, dans les plantes ».
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Postes occupés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Assistant, Université de Paris, 1961,
 Maitre-assistant, université de Paris, 1965.
@@ -576,7 +592,9 @@
           <t>Responsabilités administratives</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Créateur et responsable du laboratoire de Physiologie cellulaire et végétale, Université de Grenoble, associé au CNRS, au CEA et à l’INRA jusqu’en 1991.
 Conseiller scientifique au CEA, 1979.
@@ -614,9 +632,11 @@
           <t>Activités d’enseignement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roland Douce a enseigné à tous les niveaux universitaires. Il était un enseignant hors-pair, passionnant et passionné. Il a marqué profondément nombre de ses étudiants. Il était membre senior de l’Institut Universitaire de France, 1992-2002[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roland Douce a enseigné à tous les niveaux universitaires. Il était un enseignant hors-pair, passionnant et passionné. Il a marqué profondément nombre de ses étudiants. Il était membre senior de l’Institut Universitaire de France, 1992-2002.
 </t>
         </is>
       </c>
@@ -645,7 +665,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Auteurs de près de 250 articles scientifiques dans des revues internationales à comité de lecture et de nombreux articles de revue ou de chapitres d’ouvrage. Principales revues : Biochemical J (35), Journal of Biological Chemistry (27), European Journal of Biochemistry (20), Proceeding National Academy of Sciences USA (12), Plant Physiology (50), Biochemistry (8), Biochemica Biophysica Acta (13), FEBS letters (14), Archives of Biochemistry and Biophysic (13)…
 </t>
@@ -676,7 +698,9 @@
           <t>Domaines de compétence</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Physiologie cellulaire et de la plante entière, spécialiste des chloroplastes et des mitochondries, du métabolisme cellulaire, en particulier du métabolisme énergétique, de la biosynthèse des acides aminés et des vitamines. Biochimie, biologie moléculaire et biologie structurale. Botanique et ornithologie.
 </t>
@@ -707,14 +731,16 @@
           <t>Principales découvertes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première contribution de Roland Douce fut la caractérisation de la cardiolipine, le lipide majeur de la membrane des mitochondries des plantes et des animaux, comme étant la phosphatidyl éthanolamine[1].
-Il a ensuite considérablement amélioré les méthodes de purification des chloroplastes et des mitochondries, et obtenu les premières préparations d’enveloppes[3],[4]. Il a été le premier à montrer que l’enveloppe des chloroplastes est le siège de la biosynthèse des galactolipides et en particulier du MGDG, le monogalactosyldiacylglycérol[5]. Avec son équipe, il va caractériser les composants lipidiques [6] et protéiques[7] de l’enveloppe des plastes. Il réussira à séparer l’enveloppe interne de l’enveloppe externe[8]. Ce travail ouvrira la voie à une analyse détaillée du chloroplaste, de ses enveloppes et de ses fonctions[9], [10], [11]. Plusieurs des gènes des protéines de l’enveloppe seront clonés, dont celui de la MGDG synthase[12].
-Un travail similaire sera réalisé sur les mitochondries avec la mise au point d’une méthode de purification[13]. Il sera ainsi possible de procéder à l’analyse fonctionnelle, en particulier celle des protéines impliquées dans la photorespiration et les sous-unités du complexe glycine-décarboxylase[14], [15],[16]. Chloroplastes et mitochondries sont impliqués dans la biosynthèse de plusieurs aminoacides et de vitamines. Roland Douce, en collaboration avec l’industrie va élucider les voies de biosynthèse de plusieurs aminoacides, et ainsi définir plusieurs cibles potentielles pour des molécules herbicides[17],[18], [19]. De même, il va élucider les voies de biosynthèse de la biotine [20] et de l’acide tétrahydrofolique  (vitamine B12)[21].
-Le dernier volet du travail de Roland Douce porte sur le métabolisme de la plante, en conditions physiologiques normales, ou en conditions de stress (carence nutritive, stress lumineux ou thermique)[22], [23]. Dans ce travail, il a largement contribué à promouvoir l’usage de la résonance magnétique nucléaire en physiologie végétale[24].
-Roland Douce était un passionné de montagne et il a largement contribué à rénover et développer le jardin botanique du col du Lautaret, et à y installé un laboratoire de recherche, associé à l’université de Grenoble[25].
-Il a été l’auteur, ou le coordinateur de plusieurs ouvrages ou rapports, sur les mitochondries végétales [26], sur le monde végétal[27], les plantes transgéniques[28], ou encore les hypothèses sur l’origine du vivant[29]. Il a aussi coordonné deux volumes de la série Advances in Botanical Research sur la biosynthèse des vitamines[30],[31].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première contribution de Roland Douce fut la caractérisation de la cardiolipine, le lipide majeur de la membrane des mitochondries des plantes et des animaux, comme étant la phosphatidyl éthanolamine.
+Il a ensuite considérablement amélioré les méthodes de purification des chloroplastes et des mitochondries, et obtenu les premières préparations d’enveloppes,. Il a été le premier à montrer que l’enveloppe des chloroplastes est le siège de la biosynthèse des galactolipides et en particulier du MGDG, le monogalactosyldiacylglycérol. Avec son équipe, il va caractériser les composants lipidiques  et protéiques de l’enveloppe des plastes. Il réussira à séparer l’enveloppe interne de l’enveloppe externe. Ce travail ouvrira la voie à une analyse détaillée du chloroplaste, de ses enveloppes et de ses fonctions, , . Plusieurs des gènes des protéines de l’enveloppe seront clonés, dont celui de la MGDG synthase.
+Un travail similaire sera réalisé sur les mitochondries avec la mise au point d’une méthode de purification. Il sera ainsi possible de procéder à l’analyse fonctionnelle, en particulier celle des protéines impliquées dans la photorespiration et les sous-unités du complexe glycine-décarboxylase, ,. Chloroplastes et mitochondries sont impliqués dans la biosynthèse de plusieurs aminoacides et de vitamines. Roland Douce, en collaboration avec l’industrie va élucider les voies de biosynthèse de plusieurs aminoacides, et ainsi définir plusieurs cibles potentielles pour des molécules herbicides . De même, il va élucider les voies de biosynthèse de la biotine  et de l’acide tétrahydrofolique  (vitamine B12).
+Le dernier volet du travail de Roland Douce porte sur le métabolisme de la plante, en conditions physiologiques normales, ou en conditions de stress (carence nutritive, stress lumineux ou thermique), . Dans ce travail, il a largement contribué à promouvoir l’usage de la résonance magnétique nucléaire en physiologie végétale.
+Roland Douce était un passionné de montagne et il a largement contribué à rénover et développer le jardin botanique du col du Lautaret, et à y installé un laboratoire de recherche, associé à l’université de Grenoble.
+Il a été l’auteur, ou le coordinateur de plusieurs ouvrages ou rapports, sur les mitochondries végétales , sur le monde végétal, les plantes transgéniques, ou encore les hypothèses sur l’origine du vivant. Il a aussi coordonné deux volumes de la série Advances in Botanical Research sur la biosynthèse des vitamines,.
 </t>
         </is>
       </c>
@@ -743,7 +769,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1982 : Médaille d'argent du Centre National de la Recherche Scientifique (CNRS)
 1990 : Correspondant de l'Académie des Sciences, Paris
